--- a/7-Gráficos/24. Gráfico de Bolha - Material(1).xlsx
+++ b/7-Gráficos/24. Gráfico de Bolha - Material(1).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041D548-67E9-49DE-8F0F-3D70014D17C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89076693-7962-4CA3-8C35-C6E51C8DFF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{27B92568-D640-4777-8FD1-714EC900EB8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{27B92568-D640-4777-8FD1-714EC900EB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="GraficoMapa" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -141,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>População</t>
   </si>
@@ -157,13 +161,28 @@
   <si>
     <t>País</t>
   </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="###\ &quot;MM&quot;"/>
+    <numFmt numFmtId="169" formatCode="###\ &quot;MM&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -213,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -298,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6CB47C5-1B9E-45C0-A0DB-34D1EFCF7F58}" type="CELLRANGE">
+                    <a:fld id="{E057CCC9-D228-4B15-9E7C-A694EE595039}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -331,7 +350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4B5F8C0-2FE3-4AEA-88D8-26DE75206254}" type="CELLRANGE">
+                    <a:fld id="{0F637508-AE3B-4F82-BCB0-0952888665AF}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -365,7 +384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A822FF3C-7368-4391-8663-E71E35801372}" type="CELLRANGE">
+                    <a:fld id="{4CF51048-A23A-40DB-9200-A5514A26A571}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -399,7 +418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97A834D0-E367-447C-8E6E-779B45E92FCA}" type="CELLRANGE">
+                    <a:fld id="{336ADA04-F3B5-4335-A7CD-5DA75E5AA0DD}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -730,7 +749,422 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1222946827536464"/>
+          <c:y val="2.5568628381444428E-2"/>
+          <c:w val="0.84684388993757631"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>País</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9157267436684456E-2"/>
+                  <c:y val="0.13338903852527506"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FBBE-4A1B-93E7-B8051DA46BA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4735047862454168E-2"/>
+                  <c:y val="1.4821004280586119E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FBBE-4A1B-93E7-B8051DA46BA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.188165051163313"/>
+                  <c:y val="-6.7928818233181554E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FBBE-4A1B-93E7-B8051DA46BA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8226630672238408E-2"/>
+                  <c:y val="0.2149045620684987"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FBBE-4A1B-93E7-B8051DA46BA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>212559417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>328239523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25364307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55268100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBBE-4A1B-93E7-B8051DA46BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="50"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="898582944"/>
+        <c:axId val="898577664"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="898582944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="898577664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898577664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="898582944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1305,6 +1739,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1333,8 +2302,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="98229" y="1025064"/>
-          <a:ext cx="4068900" cy="2192753"/>
+          <a:off x="98229" y="1063164"/>
+          <a:ext cx="4012294" cy="2284193"/>
           <a:chOff x="2106706" y="797233"/>
           <a:chExt cx="4167775" cy="2261944"/>
         </a:xfrm>
@@ -1461,8 +2430,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1173525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>130585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396121</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52865</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Agrupar 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EF54AD-DADF-E9A7-1E9C-2EC24989CCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5252376" y="898730"/>
+          <a:ext cx="4223221" cy="2418752"/>
+          <a:chOff x="5139594" y="454110"/>
+          <a:chExt cx="4428180" cy="2411071"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Imagem 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41908ACC-29B5-49C8-8287-A11AE34D4C51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="22682" b="25093"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5149470" y="454110"/>
+            <a:ext cx="4418304" cy="2411071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Gráfico 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D23E9D-7EE2-6122-99CE-72ACB097D534}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5139594" y="711655"/>
+          <a:ext cx="4335004" cy="2016602"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -1621,16 +2685,18 @@
   <webImageSrd>
     <address r:id="rId1"/>
     <moreImagesAddress r:id="rId2"/>
-    <blip r:id="rId3"/>
   </webImageSrd>
   <webImageSrd>
-    <address r:id="rId4"/>
-    <moreImagesAddress r:id="rId5"/>
+    <address r:id="rId3"/>
+    <moreImagesAddress r:id="rId4"/>
   </webImageSrd>
   <webImageSrd>
-    <address r:id="rId6"/>
-    <moreImagesAddress r:id="rId7"/>
-    <blip r:id="rId8"/>
+    <address r:id="rId5"/>
+    <moreImagesAddress r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+    <moreImagesAddress r:id="rId8"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId9"/>
@@ -1639,20 +2705,14 @@
   <webImageSrd>
     <address r:id="rId11"/>
     <moreImagesAddress r:id="rId12"/>
-    <blip r:id="rId13"/>
   </webImageSrd>
   <webImageSrd>
-    <address r:id="rId14"/>
-    <moreImagesAddress r:id="rId15"/>
+    <address r:id="rId13"/>
+    <moreImagesAddress r:id="rId14"/>
   </webImageSrd>
   <webImageSrd>
-    <address r:id="rId16"/>
-    <moreImagesAddress r:id="rId17"/>
-    <blip r:id="rId18"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId19"/>
-    <moreImagesAddress r:id="rId20"/>
+    <address r:id="rId15"/>
+    <moreImagesAddress r:id="rId16"/>
   </webImageSrd>
 </webImagesSrd>
 </file>
@@ -5668,19 +6728,19 @@
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <dxfs count="10">
     <x:dxf>
-      <x:numFmt numFmtId="167" formatCode="0.0%"/>
+      <x:numFmt numFmtId="168" formatCode="0.0%"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="3" formatCode="#,##0"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+      <x:numFmt numFmtId="167" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="165" formatCode="0.0"/>
+      <x:numFmt numFmtId="166" formatCode="0.0"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -5689,13 +6749,13 @@
       <x:numFmt numFmtId="2" formatCode="0.00"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="169" formatCode="0.0000"/>
+      <x:numFmt numFmtId="164" formatCode="0.0000"/>
     </x:dxf>
   </dxfs>
   <richProperties>
@@ -5732,9 +6792,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5772,7 +6832,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5878,7 +6938,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6020,7 +7080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6028,20 +7088,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53E0375-C3A4-4840-8698-6D9F3515C6D4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="4" width="9.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="4" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -6058,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -6077,7 +7137,7 @@
         <v>212559417</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -6095,8 +7155,11 @@
         <f t="array" ref="E3">_FV(A3,"População")</f>
         <v>328239523</v>
       </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
@@ -6115,7 +7178,7 @@
         <v>25364307</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -6139,4 +7202,94 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE3E1F8-BB19-44C4-AC03-DD6E117EE582}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" vm="2">
+        <v>212559417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" vm="4">
+        <v>328239523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" vm="6">
+        <v>25364307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" vm="8">
+        <v>55268100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>